--- a/DateBase/orders/Dang Nguyen_2025-3-12.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-12.xlsx
@@ -608,6 +608,9 @@
       <c r="C21" t="str">
         <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -669,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02535401030204851101815757870</v>
+        <v>02535401030204851101815757874</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-12.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,307 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>5</v>
+      </c>
+      <c r="C37" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>6</v>
+      </c>
+      <c r="C41" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>7</v>
+      </c>
+      <c r="C50" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8</v>
+      </c>
+      <c r="C53" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L56"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +970,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02535401030204851101815757874</v>
+        <v>0253540103020485110181575787455444652020151041015101520201015621881055585132541010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-12.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-12.xlsx
@@ -972,6 +972,9 @@
       <c r="G2" t="str">
         <v>0253540103020485110181575787455444652020151041015101520201015621881055585132541010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
